--- a/examen/экзамен.xlsx
+++ b/examen/экзамен.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="ПП 14в-3 " sheetId="2" r:id="rId1"/>
+    <sheet name="ПП 14в-2" sheetId="3" r:id="rId2"/>
+    <sheet name="СПУ 14в-1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Алексеенко Валентина Владиславовна </t>
   </si>
@@ -58,6 +58,84 @@
   </si>
   <si>
     <t>Средняя за домашки</t>
+  </si>
+  <si>
+    <t>Гейко Константин Иванович </t>
+  </si>
+  <si>
+    <t>Граев Геннадий Александрович </t>
+  </si>
+  <si>
+    <t>Запара Святослав Сергеевич </t>
+  </si>
+  <si>
+    <t>Карпов Александр Владимирович </t>
+  </si>
+  <si>
+    <t>Кекух Сергей Станиславович </t>
+  </si>
+  <si>
+    <t>Коробов Илья Павлович </t>
+  </si>
+  <si>
+    <t>Онищенко Александр Владимирович </t>
+  </si>
+  <si>
+    <t>Радченко Роман Федорович </t>
+  </si>
+  <si>
+    <t>Спивак Николай Александрович </t>
+  </si>
+  <si>
+    <t>Шунько Сергей Сергеевич </t>
+  </si>
+  <si>
+    <t>вопросы</t>
+  </si>
+  <si>
+    <t>домашние</t>
+  </si>
+  <si>
+    <t>экзамен</t>
+  </si>
+  <si>
+    <t>итоговая</t>
+  </si>
+  <si>
+    <t>Василенко Ольга Алексеевна </t>
+  </si>
+  <si>
+    <t>Гарцев Борис Александрович </t>
+  </si>
+  <si>
+    <t>Зеленин Вадим Викторович </t>
+  </si>
+  <si>
+    <t>Золотаревский Михаил Сергеевич </t>
+  </si>
+  <si>
+    <t>Киян Антон Владимирович </t>
+  </si>
+  <si>
+    <t>Кос Виктор Викторович </t>
+  </si>
+  <si>
+    <t>Матвеев Олег Игоревич </t>
+  </si>
+  <si>
+    <t>Похил Антон Геннадиевич </t>
+  </si>
+  <si>
+    <t>Холтобин Антон Владимирович </t>
+  </si>
+  <si>
+    <t>Чаплинский Виталий Александрович </t>
+  </si>
+  <si>
+    <t>домашки</t>
+  </si>
+  <si>
+    <t>ФИО</t>
   </si>
 </sst>
 </file>
@@ -90,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,11 +217,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -160,6 +247,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -167,6 +255,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,10 +564,783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="K4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
+        <f>SUM(E5:J5)/6</f>
+        <v>11.5</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <f>K5*0.6+L5*0.4</f>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K14" si="0">SUM(E6:J6)/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:M14" si="1">K6*0.6+L6*0.4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <f>SUM(D4:I4)/6</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <f>J4*0.6+K4*0.4</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J13" si="0">SUM(D5:I5)/6</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L13" si="1">J5*0.6+K5*0.4</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B7:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="Z13" sqref="D13:Z13"/>
     </sheetView>
   </sheetViews>
@@ -486,34 +1353,34 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
       <c r="X7" s="6" t="s">
         <v>13</v>
       </c>
@@ -669,7 +1536,7 @@
         <v>12</v>
       </c>
       <c r="X9" s="7">
-        <f t="shared" ref="X9:X15" si="0">SUM(E9:W9)/19</f>
+        <f t="shared" ref="X9:X14" si="0">SUM(E9:W9)/19</f>
         <v>5.5789473684210522</v>
       </c>
       <c r="Y9" s="4">
@@ -1160,28 +2027,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/examen/экзамен.xlsx
+++ b/examen/экзамен.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ПП 14в-3 " sheetId="2" r:id="rId1"/>
     <sheet name="ПП 14в-2" sheetId="3" r:id="rId2"/>
     <sheet name="СПУ 14в-1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -248,6 +248,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,12 +261,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -577,10 +577,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="9"/>
       <c r="K4" s="8" t="s">
         <v>25</v>
       </c>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,10 +964,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
@@ -1117,10 +1117,12 @@
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
       <c r="L7" s="2">
         <f t="shared" si="1"/>
-        <v>5.7</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1219,10 +1221,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
       <c r="L10" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>3.0000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1255,7 +1259,7 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
-        <f t="shared" si="1"/>
+        <f>J11*0.6+K11*0.4</f>
         <v>0.6</v>
       </c>
     </row>
@@ -1287,10 +1291,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>6</v>
+      </c>
       <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f>J12*0.6+K12*0.4</f>
+        <v>3.0000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1353,34 +1359,34 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="6" t="s">
         <v>13</v>
       </c>
